--- a/tests/gait_old/data/manual_gait_turn_results.xlsx
+++ b/tests/gait_old/data/manual_gait_turn_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lukasadamowicz/Documents/Packages/scikit-digital-health/tests/gait_old/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F8F254-BB5C-8F46-A580-3C1A12A73272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203363E0-EA92-D44F-81E6-1F1185449684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="500" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24200" yWindow="580" windowWidth="48980" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
   <dimension ref="A1:AJ59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L59"/>
+      <selection activeCell="K2" sqref="K2:K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -690,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="K2">
-        <v>6.9652986816055057E-2</v>
+        <v>6.9652986816055515E-2</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -764,27 +764,27 @@
       </c>
       <c r="AD2">
         <f>2*SQRT(2 * M2 * K2 - K2 * K2)</f>
-        <v>0.7319916216860326</v>
+        <v>0.73199162168603493</v>
       </c>
       <c r="AE2">
         <f>AD3-AD2</f>
-        <v>8.8259460581881388E-2</v>
+        <v>8.8259460581880722E-2</v>
       </c>
       <c r="AF2">
         <f>AD3+AD2</f>
-        <v>1.5522427039539466</v>
+        <v>1.5522427039539506</v>
       </c>
       <c r="AG2">
         <f>AF3-AF2</f>
-        <v>5.5057423781079029E-2</v>
+        <v>5.5057423781078141E-2</v>
       </c>
       <c r="AH2">
         <f>AF2/P2</f>
-        <v>1.3154599186050395</v>
+        <v>1.3154599186050429</v>
       </c>
       <c r="AI2">
         <f>AH3-AH2</f>
-        <v>0.14572201569952914</v>
+        <v>0.1457220156995287</v>
       </c>
       <c r="AJ2">
         <f>60/N2</f>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="K3">
-        <v>8.8319606802581094E-2</v>
+        <v>8.8319606802581468E-2</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD58" si="18">2*SQRT(2 * M3 * K3 - K3 * K3)</f>
-        <v>0.82025108226791399</v>
+        <v>0.82025108226791565</v>
       </c>
       <c r="AE3">
         <f t="shared" ref="AE3:AE57" si="19">AD4-AD3</f>
@@ -907,7 +907,7 @@
       </c>
       <c r="AF3">
         <f t="shared" ref="AF3:AF57" si="20">AD4+AD3</f>
-        <v>1.6073001277350256</v>
+        <v>1.6073001277350287</v>
       </c>
       <c r="AG3">
         <f t="shared" ref="AG3:AG56" si="21">AF4-AF3</f>
@@ -915,7 +915,7 @@
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH57" si="22">AF3/P3</f>
-        <v>1.4611819343045687</v>
+        <v>1.4611819343045716</v>
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI56" si="23">AH4-AH3</f>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="K4">
-        <v>8.1003140704903262E-2</v>
+        <v>8.1003140704903609E-2</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -1034,15 +1034,15 @@
       </c>
       <c r="AD4">
         <f t="shared" si="18"/>
-        <v>0.78704904546711152</v>
+        <v>0.78704904546711318</v>
       </c>
       <c r="AE4">
         <f t="shared" si="19"/>
-        <v>-1.2728608420383813E-2</v>
+        <v>-1.2728608420384036E-2</v>
       </c>
       <c r="AF4">
         <f t="shared" si="20"/>
-        <v>1.5613694825138391</v>
+        <v>1.5613694825138422</v>
       </c>
       <c r="AG4">
         <f t="shared" si="21"/>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="AH4">
         <f t="shared" si="22"/>
-        <v>1.4729900778432443</v>
+        <v>1.4729900778432472</v>
       </c>
       <c r="AI4">
         <f t="shared" si="23"/>
@@ -1095,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="K5">
-        <v>7.8293293133667841E-2</v>
+        <v>7.829329313366816E-2</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="AD5">
         <f t="shared" si="18"/>
-        <v>0.77432043704672771</v>
+        <v>0.77432043704672915</v>
       </c>
       <c r="AE5">
         <f t="shared" si="19"/>
-        <v>-1.197898344340087E-2</v>
+        <v>-1.1978983443400648E-2</v>
       </c>
       <c r="AF5">
         <f t="shared" si="20"/>
-        <v>1.5366618906500547</v>
+        <v>1.5366618906500578</v>
       </c>
       <c r="AG5">
         <f t="shared" si="21"/>
-        <v>-1.9381106702179629E-2</v>
+        <v>-1.9381106702178963E-2</v>
       </c>
       <c r="AH5">
         <f t="shared" si="22"/>
-        <v>1.4228350839352357</v>
+        <v>1.4228350839352386</v>
       </c>
       <c r="AI5">
         <f t="shared" si="23"/>
-        <v>-4.3488916709894854E-2</v>
+        <v>-4.348891670989441E-2</v>
       </c>
       <c r="AJ5">
         <f t="shared" si="24"/>
@@ -1230,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="K6">
-        <v>7.5790507853904607E-2</v>
+        <v>7.5790507853904968E-2</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1304,27 +1304,27 @@
       </c>
       <c r="AD6">
         <f t="shared" si="18"/>
-        <v>0.76234145360332684</v>
+        <v>0.7623414536033285</v>
       </c>
       <c r="AE6">
         <f t="shared" si="19"/>
-        <v>-7.4021232587785368E-3</v>
+        <v>-7.4021232587782038E-3</v>
       </c>
       <c r="AF6">
         <f t="shared" si="20"/>
-        <v>1.517280783947875</v>
+        <v>1.5172807839478788</v>
       </c>
       <c r="AG6">
         <f t="shared" si="21"/>
-        <v>7.633496121250416E-2</v>
+        <v>7.6334961212503938E-2</v>
       </c>
       <c r="AH6">
         <f t="shared" si="22"/>
-        <v>1.3793461672253409</v>
+        <v>1.3793461672253442</v>
       </c>
       <c r="AI6">
         <f t="shared" si="23"/>
-        <v>6.939541928409465E-2</v>
+        <v>6.9395419284094428E-2</v>
       </c>
       <c r="AJ6">
         <f t="shared" si="24"/>
@@ -1365,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="K7">
-        <v>7.4266814459683791E-2</v>
+        <v>7.4266814459684194E-2</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1439,27 +1439,27 @@
       </c>
       <c r="AD7">
         <f t="shared" si="18"/>
-        <v>0.7549393303445483</v>
+        <v>0.7549393303445503</v>
       </c>
       <c r="AE7">
         <f t="shared" si="19"/>
-        <v>8.3737084471282586E-2</v>
+        <v>8.3737084471282142E-2</v>
       </c>
       <c r="AF7">
         <f t="shared" si="20"/>
-        <v>1.5936157451603792</v>
+        <v>1.5936157451603827</v>
       </c>
       <c r="AG7">
         <f t="shared" si="21"/>
-        <v>-8.0781522107882253E-3</v>
+        <v>-8.0781522107880033E-3</v>
       </c>
       <c r="AH7">
         <f t="shared" si="22"/>
-        <v>1.4487415865094355</v>
+        <v>1.4487415865094386</v>
       </c>
       <c r="AI7">
         <f t="shared" si="23"/>
-        <v>-8.1898833966684625E-2</v>
+        <v>-8.1898833966684403E-2</v>
       </c>
       <c r="AJ7">
         <f t="shared" si="24"/>
@@ -1500,7 +1500,7 @@
         <v>3</v>
       </c>
       <c r="K8">
-        <v>9.2536941894450442E-2</v>
+        <v>9.2536941894450789E-2</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -1574,27 +1574,27 @@
       </c>
       <c r="AD8">
         <f t="shared" si="18"/>
-        <v>0.83867641481583088</v>
+        <v>0.83867641481583244</v>
       </c>
       <c r="AE8">
         <f t="shared" si="19"/>
-        <v>-9.1815236682070811E-2</v>
+        <v>-9.1815236682070145E-2</v>
       </c>
       <c r="AF8">
         <f t="shared" si="20"/>
-        <v>1.585537592949591</v>
+        <v>1.5855375929495947</v>
       </c>
       <c r="AG8">
         <f t="shared" si="21"/>
-        <v>-0.23594980266022403</v>
+        <v>-0.23594980266022647</v>
       </c>
       <c r="AH8">
         <f t="shared" si="22"/>
-        <v>1.3668427525427509</v>
+        <v>1.3668427525427542</v>
       </c>
       <c r="AI8">
         <f t="shared" si="23"/>
-        <v>-0.2231242861958298</v>
+        <v>-0.2231242861958318</v>
       </c>
       <c r="AJ8">
         <f t="shared" si="24"/>
@@ -1635,7 +1635,7 @@
         <v>3</v>
       </c>
       <c r="K9">
-        <v>7.2623752660221835E-2</v>
+        <v>7.2623752660222307E-2</v>
       </c>
       <c r="L9">
         <v>2</v>
@@ -1709,27 +1709,27 @@
       </c>
       <c r="AD9">
         <f t="shared" si="18"/>
-        <v>0.74686117813376007</v>
+        <v>0.74686117813376229</v>
       </c>
       <c r="AE9">
         <f t="shared" si="19"/>
-        <v>-0.14413456597815333</v>
+        <v>-0.14413456597815621</v>
       </c>
       <c r="AF9">
         <f t="shared" si="20"/>
-        <v>1.3495877902893669</v>
+        <v>1.3495877902893683</v>
       </c>
       <c r="AG9">
         <f t="shared" si="21"/>
-        <v>-0.1518134761933656</v>
+        <v>-0.15181347619336472</v>
       </c>
       <c r="AH9">
         <f t="shared" si="22"/>
-        <v>1.1437184663469211</v>
+        <v>1.1437184663469224</v>
       </c>
       <c r="AI9">
         <f t="shared" si="23"/>
-        <v>-0.12865548829946238</v>
+        <v>-0.12865548829946172</v>
       </c>
       <c r="AJ9">
         <f t="shared" si="24"/>
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="K10">
-        <v>4.6666817600934732E-2</v>
+        <v>4.6666817600934621E-2</v>
       </c>
       <c r="L10">
         <v>2</v>
@@ -1844,27 +1844,27 @@
       </c>
       <c r="AD10">
         <f t="shared" si="18"/>
-        <v>0.60272661215560674</v>
+        <v>0.60272661215560608</v>
       </c>
       <c r="AE10">
         <f t="shared" si="19"/>
-        <v>-7.6789102152121647E-3</v>
+        <v>-7.6789102152086119E-3</v>
       </c>
       <c r="AF10">
         <f t="shared" si="20"/>
-        <v>1.1977743140960013</v>
+        <v>1.1977743140960035</v>
       </c>
       <c r="AG10">
         <f t="shared" si="21"/>
-        <v>2.5703320612521452E-2</v>
+        <v>2.5703320612524116E-2</v>
       </c>
       <c r="AH10">
         <f t="shared" si="22"/>
-        <v>1.0150629780474587</v>
+        <v>1.0150629780474607</v>
       </c>
       <c r="AI10">
         <f t="shared" si="23"/>
-        <v>5.8163017310894682E-2</v>
+        <v>5.8163017310896903E-2</v>
       </c>
       <c r="AJ10">
         <f t="shared" si="24"/>
@@ -1905,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="K11">
-        <v>4.5457037407677203E-2</v>
+        <v>4.5457037407677661E-2</v>
       </c>
       <c r="L11">
         <v>2</v>
@@ -1979,27 +1979,27 @@
       </c>
       <c r="AD11">
         <f t="shared" si="18"/>
-        <v>0.59504770194039458</v>
+        <v>0.59504770194039747</v>
       </c>
       <c r="AE11">
         <f t="shared" si="19"/>
-        <v>3.3382230827733617E-2</v>
+        <v>3.3382230827732728E-2</v>
       </c>
       <c r="AF11">
         <f t="shared" si="20"/>
-        <v>1.2234776347085228</v>
+        <v>1.2234776347085277</v>
       </c>
       <c r="AG11">
         <f t="shared" si="21"/>
-        <v>0.26845471544710775</v>
+        <v>0.26845471544710642</v>
       </c>
       <c r="AH11">
         <f t="shared" si="22"/>
-        <v>1.0732259953583534</v>
+        <v>1.0732259953583576</v>
       </c>
       <c r="AI11">
         <f t="shared" si="23"/>
-        <v>0.30819284737834152</v>
+        <v>0.30819284737834063</v>
       </c>
       <c r="AJ11">
         <f t="shared" si="24"/>
@@ -2040,7 +2040,7 @@
         <v>3</v>
       </c>
       <c r="K12">
-        <v>5.0840951129829517E-2</v>
+        <v>5.0840951129829837E-2</v>
       </c>
       <c r="L12">
         <v>2</v>
@@ -2114,27 +2114,27 @@
       </c>
       <c r="AD12">
         <f t="shared" si="18"/>
-        <v>0.6284299327681282</v>
+        <v>0.62842993276813019</v>
       </c>
       <c r="AE12">
         <f t="shared" si="19"/>
-        <v>0.23507248461937424</v>
+        <v>0.23507248461937369</v>
       </c>
       <c r="AF12">
         <f t="shared" si="20"/>
-        <v>1.4919323501556305</v>
+        <v>1.4919323501556341</v>
       </c>
       <c r="AG12">
         <f t="shared" si="21"/>
-        <v>0.15577452608144382</v>
+        <v>0.15577452608144338</v>
       </c>
       <c r="AH12">
         <f t="shared" si="22"/>
-        <v>1.3814188427366949</v>
+        <v>1.3814188427366982</v>
       </c>
       <c r="AI12">
         <f t="shared" si="23"/>
-        <v>0.116496499297009</v>
+        <v>0.11649649929700834</v>
       </c>
       <c r="AJ12">
         <f t="shared" si="24"/>
@@ -2175,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="K13">
-        <v>9.8400081407862897E-2</v>
+        <v>9.8400081407863244E-2</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="AD13">
         <f t="shared" si="18"/>
-        <v>0.86350241738750244</v>
+        <v>0.86350241738750388</v>
       </c>
       <c r="AE13">
         <f t="shared" si="19"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="AF13">
         <f t="shared" si="20"/>
-        <v>1.6477068762370743</v>
+        <v>1.6477068762370775</v>
       </c>
       <c r="AG13">
         <f t="shared" si="21"/>
@@ -2265,11 +2265,11 @@
       </c>
       <c r="AH13">
         <f t="shared" si="22"/>
-        <v>1.4979153420337039</v>
+        <v>1.4979153420337066</v>
       </c>
       <c r="AI13">
         <f t="shared" si="23"/>
-        <v>-1.4744838595771137E-2</v>
+        <v>-1.4744838595770915E-2</v>
       </c>
       <c r="AJ13">
         <f t="shared" si="24"/>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="K14">
-        <v>8.0393012209998227E-2</v>
+        <v>8.0393012209998546E-2</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -2384,27 +2384,27 @@
       </c>
       <c r="AD14">
         <f t="shared" si="18"/>
-        <v>0.78420445884957202</v>
+        <v>0.78420445884957346</v>
       </c>
       <c r="AE14">
         <f t="shared" si="19"/>
-        <v>3.3415226013823518E-2</v>
+        <v>3.3415226013823629E-2</v>
       </c>
       <c r="AF14">
         <f t="shared" si="20"/>
-        <v>1.6018241437129674</v>
+        <v>1.6018241437129705</v>
       </c>
       <c r="AG14">
         <f t="shared" si="21"/>
-        <v>4.6983303384134256E-2</v>
+        <v>4.6983303384133812E-2</v>
       </c>
       <c r="AH14">
         <f t="shared" si="22"/>
-        <v>1.4831705034379328</v>
+        <v>1.4831705034379357</v>
       </c>
       <c r="AI14">
         <f t="shared" si="23"/>
-        <v>7.230822023857808E-2</v>
+        <v>7.2308220238577858E-2</v>
       </c>
       <c r="AJ14">
         <f t="shared" si="24"/>
@@ -2445,7 +2445,7 @@
         <v>3</v>
       </c>
       <c r="K15">
-        <v>8.7726531293572746E-2</v>
+        <v>8.7726531293573093E-2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2519,15 +2519,15 @@
       </c>
       <c r="AD15">
         <f t="shared" si="18"/>
-        <v>0.81761968486339553</v>
+        <v>0.81761968486339709</v>
       </c>
       <c r="AE15">
         <f t="shared" si="19"/>
-        <v>1.3568077370310516E-2</v>
+        <v>1.3568077370310183E-2</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>1.6488074470971017</v>
+        <v>1.6488074470971044</v>
       </c>
       <c r="AG15">
         <f t="shared" si="21"/>
@@ -2535,11 +2535,11 @@
       </c>
       <c r="AH15">
         <f t="shared" si="22"/>
-        <v>1.5554787236765109</v>
+        <v>1.5554787236765135</v>
       </c>
       <c r="AI15">
         <f t="shared" si="23"/>
-        <v>1.9791561915772027E-2</v>
+        <v>1.9791561915771805E-2</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="24"/>
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="K16">
-        <v>9.080920611004939E-2</v>
+        <v>9.0809206110049653E-2</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -2654,27 +2654,27 @@
       </c>
       <c r="AD16">
         <f t="shared" si="18"/>
-        <v>0.83118776223370605</v>
+        <v>0.83118776223370727</v>
       </c>
       <c r="AE16">
         <f t="shared" si="19"/>
-        <v>3.8916383972253499E-2</v>
+        <v>3.8916383972253721E-2</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>1.7012919084396656</v>
+        <v>1.7012919084396683</v>
       </c>
       <c r="AG16">
         <f t="shared" si="21"/>
-        <v>3.0755684415208151E-2</v>
+        <v>3.0755684415208373E-2</v>
       </c>
       <c r="AH16">
         <f t="shared" si="22"/>
-        <v>1.5752702855922829</v>
+        <v>1.5752702855922853</v>
       </c>
       <c r="AI16">
         <f t="shared" si="23"/>
-        <v>-6.8156481512504641E-4</v>
+        <v>-6.8156481512482436E-4</v>
       </c>
       <c r="AJ16">
         <f t="shared" si="24"/>
@@ -2715,7 +2715,7 @@
         <v>3</v>
       </c>
       <c r="K17">
-        <v>9.9994593005597987E-2</v>
+        <v>9.9994593005598334E-2</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2789,23 +2789,23 @@
       </c>
       <c r="AD17">
         <f t="shared" si="18"/>
-        <v>0.87010414620595955</v>
+        <v>0.87010414620596099</v>
       </c>
       <c r="AE17">
         <f t="shared" si="19"/>
-        <v>-8.1606995570452368E-3</v>
+        <v>-8.1606995570453478E-3</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>1.7320475928548738</v>
+        <v>1.7320475928548766</v>
       </c>
       <c r="AG17">
         <f t="shared" si="21"/>
-        <v>-0.19228975556711525</v>
+        <v>-0.19228975556711503</v>
       </c>
       <c r="AH17">
         <f t="shared" si="22"/>
-        <v>1.5745887207771578</v>
+        <v>1.5745887207771605</v>
       </c>
       <c r="AI17">
         <f t="shared" si="23"/>
@@ -2850,7 +2850,7 @@
         <v>3</v>
       </c>
       <c r="K18">
-        <v>9.8025727385992231E-2</v>
+        <v>9.802572738599255E-2</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -2924,27 +2924,27 @@
       </c>
       <c r="AD18">
         <f t="shared" si="18"/>
-        <v>0.86194344664891431</v>
+        <v>0.86194344664891565</v>
       </c>
       <c r="AE18">
         <f t="shared" si="19"/>
-        <v>-0.18412905601007001</v>
+        <v>-0.18412905601006968</v>
       </c>
       <c r="AF18">
         <f t="shared" si="20"/>
-        <v>1.5397578372877585</v>
+        <v>1.5397578372877616</v>
       </c>
       <c r="AG18">
         <f t="shared" si="21"/>
-        <v>-0.17854947336409088</v>
+        <v>-0.17854947336408977</v>
       </c>
       <c r="AH18">
         <f t="shared" si="22"/>
-        <v>1.3997798520797804</v>
+        <v>1.3997798520797831</v>
       </c>
       <c r="AI18">
         <f t="shared" si="23"/>
-        <v>-0.20573742758533498</v>
+        <v>-0.20573742758533409</v>
       </c>
       <c r="AJ18">
         <f t="shared" si="24"/>
@@ -2985,7 +2985,7 @@
         <v>2</v>
       </c>
       <c r="K19">
-        <v>5.940753847177456E-2</v>
+        <v>5.9407538471774851E-2</v>
       </c>
       <c r="L19">
         <v>2</v>
@@ -3059,27 +3059,27 @@
       </c>
       <c r="AD19">
         <f t="shared" si="18"/>
-        <v>0.6778143906388443</v>
+        <v>0.67781439063884596</v>
       </c>
       <c r="AE19">
         <f t="shared" si="19"/>
-        <v>5.5795826459791309E-3</v>
+        <v>5.5795826459799081E-3</v>
       </c>
       <c r="AF19">
         <f t="shared" si="20"/>
-        <v>1.3612083639236676</v>
+        <v>1.3612083639236718</v>
       </c>
       <c r="AG19" s="3">
         <f t="shared" si="21"/>
-        <v>-0.67781439063884419</v>
+        <v>-0.67781439063884596</v>
       </c>
       <c r="AH19">
         <f t="shared" si="22"/>
-        <v>1.1940424244944454</v>
+        <v>1.194042424494449</v>
       </c>
       <c r="AI19" s="3">
         <f t="shared" si="23"/>
-        <v>-1.0328646006065154</v>
+        <v>-1.0328646006065183</v>
       </c>
       <c r="AJ19">
         <f t="shared" si="24"/>
@@ -3120,7 +3120,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>6.0421298682766238E-2</v>
+        <v>6.0421298682766668E-2</v>
       </c>
       <c r="L20">
         <v>2</v>
@@ -3194,27 +3194,27 @@
       </c>
       <c r="AD20">
         <f t="shared" si="18"/>
-        <v>0.68339397328482343</v>
+        <v>0.68339397328482587</v>
       </c>
       <c r="AE20" s="3">
         <f t="shared" si="19"/>
-        <v>-0.68339397328482343</v>
+        <v>-0.68339397328482587</v>
       </c>
       <c r="AF20" s="3">
         <f t="shared" si="20"/>
-        <v>0.68339397328482343</v>
+        <v>0.68339397328482587</v>
       </c>
       <c r="AG20" s="3">
         <f t="shared" si="21"/>
-        <v>3.3631958985155919E-2</v>
+        <v>3.3631958985155141E-2</v>
       </c>
       <c r="AH20" s="3">
         <f t="shared" si="22"/>
-        <v>0.16117782388793003</v>
+        <v>0.16117782388793062</v>
       </c>
       <c r="AI20" s="3">
         <f t="shared" si="23"/>
-        <v>7.9320657983858456E-3</v>
+        <v>7.9320657983856513E-3</v>
       </c>
       <c r="AJ20">
         <f t="shared" si="24"/>
@@ -3330,23 +3330,23 @@
       </c>
       <c r="AE21" s="3">
         <f t="shared" si="19"/>
-        <v>0.71702593226997935</v>
+        <v>0.71702593226998101</v>
       </c>
       <c r="AF21" s="3">
         <f t="shared" si="20"/>
-        <v>0.71702593226997935</v>
+        <v>0.71702593226998101</v>
       </c>
       <c r="AG21" s="3">
         <f t="shared" si="21"/>
-        <v>0.77948684101974719</v>
+        <v>0.77948684101974863</v>
       </c>
       <c r="AH21" s="3">
         <f t="shared" si="22"/>
-        <v>0.16910988968631588</v>
+        <v>0.16910988968631627</v>
       </c>
       <c r="AI21" s="3">
         <f t="shared" si="23"/>
-        <v>1.1436206131994093</v>
+        <v>1.1436206131994116</v>
       </c>
       <c r="AJ21" s="3">
         <f t="shared" si="24"/>
@@ -3387,7 +3387,7 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <v>6.6732633081545797E-2</v>
+        <v>6.673263308154613E-2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3461,23 +3461,23 @@
       </c>
       <c r="AD22">
         <f t="shared" si="18"/>
-        <v>0.71702593226997935</v>
+        <v>0.71702593226998101</v>
       </c>
       <c r="AE22">
         <f t="shared" si="19"/>
-        <v>6.246090874976773E-2</v>
+        <v>6.2460908749767619E-2</v>
       </c>
       <c r="AF22">
         <f t="shared" si="20"/>
-        <v>1.4965127732897265</v>
+        <v>1.4965127732897296</v>
       </c>
       <c r="AG22">
         <f t="shared" si="21"/>
-        <v>0.15198141775005913</v>
+        <v>0.15198141775005891</v>
       </c>
       <c r="AH22">
         <f t="shared" si="22"/>
-        <v>1.3127305028857252</v>
+        <v>1.3127305028857279</v>
       </c>
       <c r="AI22">
         <f t="shared" si="23"/>
@@ -3522,7 +3522,7 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <v>7.9386899674130124E-2</v>
+        <v>7.9386899674130457E-2</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -3596,27 +3596,27 @@
       </c>
       <c r="AD23">
         <f t="shared" si="18"/>
-        <v>0.77948684101974708</v>
+        <v>0.77948684101974863</v>
       </c>
       <c r="AE23">
         <f t="shared" si="19"/>
-        <v>8.9520509000291515E-2</v>
+        <v>8.9520509000291293E-2</v>
       </c>
       <c r="AF23">
         <f t="shared" si="20"/>
-        <v>1.6484941910397857</v>
+        <v>1.6484941910397886</v>
       </c>
       <c r="AG23">
         <f t="shared" si="21"/>
-        <v>0.1124027747439853</v>
+        <v>0.11240277474398463</v>
       </c>
       <c r="AH23">
         <f t="shared" si="22"/>
-        <v>1.5551831990941374</v>
+        <v>1.55518319909414</v>
       </c>
       <c r="AI23">
         <f t="shared" si="23"/>
-        <v>0.10604035353206154</v>
+        <v>0.10604035353206109</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="24"/>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
       <c r="K24">
-        <v>9.9728646379964078E-2</v>
+        <v>9.9728646379964411E-2</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -3731,27 +3731,27 @@
       </c>
       <c r="AD24">
         <f t="shared" si="18"/>
-        <v>0.86900735002003859</v>
+        <v>0.86900735002003993</v>
       </c>
       <c r="AE24">
         <f t="shared" si="19"/>
-        <v>2.2882265743693675E-2</v>
+        <v>2.2882265743693453E-2</v>
       </c>
       <c r="AF24">
         <f t="shared" si="20"/>
-        <v>1.760896965783771</v>
+        <v>1.7608969657837732</v>
       </c>
       <c r="AG24">
         <f t="shared" si="21"/>
-        <v>1.6091545998896173E-2</v>
+        <v>1.6091545998896395E-2</v>
       </c>
       <c r="AH24">
         <f t="shared" si="22"/>
-        <v>1.6612235526261989</v>
+        <v>1.6612235526262011</v>
       </c>
       <c r="AI24">
         <f t="shared" si="23"/>
-        <v>1.5180703772543547E-2</v>
+        <v>1.5180703772543769E-2</v>
       </c>
       <c r="AJ24">
         <f t="shared" si="24"/>
@@ -3792,7 +3792,7 @@
         <v>3</v>
       </c>
       <c r="K25">
-        <v>0.1053634192003083</v>
+        <v>0.1053634192003086</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -3866,27 +3866,27 @@
       </c>
       <c r="AD25">
         <f t="shared" si="18"/>
-        <v>0.89188961576373227</v>
+        <v>0.89188961576373338</v>
       </c>
       <c r="AE25">
         <f t="shared" si="19"/>
-        <v>-6.79071974479728E-3</v>
+        <v>-6.790719744797169E-3</v>
       </c>
       <c r="AF25">
         <f t="shared" si="20"/>
-        <v>1.7769885117826671</v>
+        <v>1.7769885117826696</v>
       </c>
       <c r="AG25">
         <f t="shared" si="21"/>
-        <v>8.4304769779097732E-3</v>
+        <v>8.4304769779095512E-3</v>
       </c>
       <c r="AH25">
         <f t="shared" si="22"/>
-        <v>1.6764042563987425</v>
+        <v>1.6764042563987449</v>
       </c>
       <c r="AI25">
         <f t="shared" si="23"/>
-        <v>7.9532801678394716E-3</v>
+        <v>7.9532801678390275E-3</v>
       </c>
       <c r="AJ25">
         <f t="shared" si="24"/>
@@ -3927,7 +3927,7 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>0.1036721881410238</v>
+        <v>0.10367218814102409</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4001,7 +4001,7 @@
       </c>
       <c r="AD26">
         <f t="shared" si="18"/>
-        <v>0.88509889601893499</v>
+        <v>0.88509889601893621</v>
       </c>
       <c r="AE26">
         <f t="shared" si="19"/>
@@ -4009,19 +4009,19 @@
       </c>
       <c r="AF26">
         <f t="shared" si="20"/>
-        <v>1.7854189887605769</v>
+        <v>1.7854189887605791</v>
       </c>
       <c r="AG26">
         <f t="shared" si="21"/>
-        <v>-0.11122356404181422</v>
+        <v>-0.11122356404181377</v>
       </c>
       <c r="AH26">
         <f t="shared" si="22"/>
-        <v>1.6843575365665819</v>
+        <v>1.6843575365665839</v>
       </c>
       <c r="AI26">
         <f t="shared" si="23"/>
-        <v>-0.18954019306768677</v>
+        <v>-0.18954019306768632</v>
       </c>
       <c r="AJ26">
         <f t="shared" si="24"/>
@@ -4062,7 +4062,7 @@
         <v>3</v>
       </c>
       <c r="K27">
-        <v>0.107485553806543</v>
+        <v>0.1074855538065433</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4136,27 +4136,27 @@
       </c>
       <c r="AD27">
         <f t="shared" si="18"/>
-        <v>0.90032009274164182</v>
+        <v>0.90032009274164304</v>
       </c>
       <c r="AE27">
         <f t="shared" si="19"/>
-        <v>-0.12644476076452094</v>
+        <v>-0.12644476076452071</v>
       </c>
       <c r="AF27">
         <f t="shared" si="20"/>
-        <v>1.6741954247187627</v>
+        <v>1.6741954247187654</v>
       </c>
       <c r="AG27">
         <f t="shared" si="21"/>
-        <v>-0.19470072709059272</v>
+        <v>-0.19470072709059227</v>
       </c>
       <c r="AH27">
         <f t="shared" si="22"/>
-        <v>1.4948173434988952</v>
+        <v>1.4948173434988976</v>
       </c>
       <c r="AI27">
         <f t="shared" si="23"/>
-        <v>-0.24100827771231037</v>
+        <v>-0.24100827771231015</v>
       </c>
       <c r="AJ27">
         <f t="shared" si="24"/>
@@ -4197,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="K28">
-        <v>7.8199475800996274E-2</v>
+        <v>7.8199475800996579E-2</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -4271,27 +4271,27 @@
       </c>
       <c r="AD28">
         <f t="shared" si="18"/>
-        <v>0.77387533197712088</v>
+        <v>0.77387533197712233</v>
       </c>
       <c r="AE28">
         <f t="shared" si="19"/>
-        <v>-6.8255966326071782E-2</v>
+        <v>-6.825596632607156E-2</v>
       </c>
       <c r="AF28">
         <f t="shared" si="20"/>
-        <v>1.47949469762817</v>
+        <v>1.4794946976281731</v>
       </c>
       <c r="AG28">
         <f t="shared" si="21"/>
-        <v>-0.22441331800913167</v>
+        <v>-0.224413318009131</v>
       </c>
       <c r="AH28">
         <f t="shared" si="22"/>
-        <v>1.2538090657865848</v>
+        <v>1.2538090657865875</v>
       </c>
       <c r="AI28">
         <f t="shared" si="23"/>
-        <v>-0.2079079161040529</v>
+        <v>-0.20790791610405224</v>
       </c>
       <c r="AJ28">
         <f t="shared" si="24"/>
@@ -4332,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="K29">
-        <v>6.4553291734872953E-2</v>
+        <v>6.45532917348733E-2</v>
       </c>
       <c r="L29">
         <v>2</v>
@@ -4354,7 +4354,7 @@
       </c>
       <c r="Q29">
         <f t="shared" si="5"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="R29">
         <f t="shared" si="6"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="U29">
         <f t="shared" si="9"/>
-        <v>3.999999999999998E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="V29">
         <f t="shared" si="10"/>
@@ -4406,27 +4406,27 @@
       </c>
       <c r="AD29">
         <f t="shared" si="18"/>
-        <v>0.7056193656510491</v>
+        <v>0.70561936565105077</v>
       </c>
       <c r="AE29">
         <f t="shared" si="19"/>
-        <v>-0.15615735168305989</v>
+        <v>-0.15615735168305955</v>
       </c>
       <c r="AF29">
         <f t="shared" si="20"/>
-        <v>1.2550813796190383</v>
+        <v>1.2550813796190421</v>
       </c>
       <c r="AG29">
         <f t="shared" si="21"/>
-        <v>-0.26935958636494894</v>
+        <v>-0.26935958636494739</v>
       </c>
       <c r="AH29">
         <f t="shared" si="22"/>
-        <v>1.0459011496825319</v>
+        <v>1.0459011496825352</v>
       </c>
       <c r="AI29">
         <f t="shared" si="23"/>
-        <v>-0.25096421963891147</v>
+        <v>-0.23793246668737567</v>
       </c>
       <c r="AJ29">
         <f t="shared" si="24"/>
@@ -4461,13 +4461,13 @@
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="J30">
         <v>3</v>
       </c>
       <c r="K30">
-        <v>3.8623494858241833E-2</v>
+        <v>3.8623494858242131E-2</v>
       </c>
       <c r="L30">
         <v>2</v>
@@ -4481,15 +4481,15 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>4.0000000000000036E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="P30">
         <f t="shared" si="4"/>
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="Q30">
         <f t="shared" si="5"/>
-        <v>-4.0000000000000036E-2</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R30">
         <f t="shared" si="6"/>
@@ -4501,11 +4501,11 @@
       </c>
       <c r="T30">
         <f t="shared" si="8"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="U30">
         <f t="shared" si="9"/>
-        <v>-0.06</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="V30">
         <f t="shared" si="10"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="Y30">
         <f t="shared" si="13"/>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <f t="shared" si="14"/>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="AA30">
         <f t="shared" si="15"/>
-        <v>-1.9999999999999962E-2</v>
+        <v>0</v>
       </c>
       <c r="AB30">
         <f t="shared" si="16"/>
@@ -4537,31 +4537,31 @@
       </c>
       <c r="AC30">
         <f t="shared" si="17"/>
-        <v>3.999999999999998E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD30">
         <f t="shared" si="18"/>
-        <v>0.54946201396798922</v>
+        <v>0.54946201396799121</v>
       </c>
       <c r="AE30">
         <f t="shared" si="19"/>
-        <v>-0.11320223468188911</v>
+        <v>-0.11320223468188767</v>
       </c>
       <c r="AF30">
         <f t="shared" si="20"/>
-        <v>0.98572179325408937</v>
+        <v>0.9857217932540947</v>
       </c>
       <c r="AG30">
         <f t="shared" si="21"/>
-        <v>4.9402444407502966E-2</v>
+        <v>-1.8397166882236915E-2</v>
       </c>
       <c r="AH30">
         <f t="shared" si="22"/>
-        <v>0.79493693004362043</v>
+        <v>0.80796868299515956</v>
       </c>
       <c r="AI30">
         <f t="shared" si="23"/>
-        <v>6.7666601341039856E-2</v>
+        <v>-1.8648276852780699E-3</v>
       </c>
       <c r="AJ30">
         <f t="shared" si="24"/>
@@ -4592,7 +4592,7 @@
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="I31">
         <f t="shared" si="1"/>
@@ -4602,7 +4602,7 @@
         <v>3</v>
       </c>
       <c r="K31">
-        <v>2.416941457064271E-2</v>
+        <v>2.4169414570643099E-2</v>
       </c>
       <c r="L31">
         <v>2</v>
@@ -4612,11 +4612,11 @@
       </c>
       <c r="N31">
         <f t="shared" si="2"/>
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>-7.999999999999996E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="P31">
         <f t="shared" si="4"/>
@@ -4624,7 +4624,7 @@
       </c>
       <c r="Q31">
         <f t="shared" si="5"/>
-        <v>-6.0000000000000053E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="R31">
         <f t="shared" si="6"/>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="S31">
         <f t="shared" si="7"/>
-        <v>-6.0000000000000053E-2</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="T31">
         <f t="shared" si="8"/>
@@ -4648,19 +4648,19 @@
       </c>
       <c r="W31">
         <f t="shared" si="11"/>
-        <v>-1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X31">
         <f t="shared" si="12"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="Y31">
         <f t="shared" si="13"/>
-        <v>1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="Z31">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="AA31">
         <f t="shared" si="15"/>
@@ -4668,39 +4668,39 @@
       </c>
       <c r="AB31">
         <f t="shared" si="16"/>
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="AC31">
         <f t="shared" si="17"/>
-        <v>-0.06</v>
+        <v>-4.0000000000000036E-2</v>
       </c>
       <c r="AD31">
         <f t="shared" si="18"/>
-        <v>0.4362597792861001</v>
+        <v>0.43625977928610354</v>
       </c>
       <c r="AE31">
         <f t="shared" si="19"/>
-        <v>0.16260467908939208</v>
+        <v>9.4805067799650755E-2</v>
       </c>
       <c r="AF31">
         <f t="shared" si="20"/>
-        <v>1.0351242376615923</v>
+        <v>0.96732462637185779</v>
       </c>
       <c r="AG31">
         <f t="shared" si="21"/>
-        <v>0.34404338697688486</v>
+        <v>0.34404338697688286</v>
       </c>
       <c r="AH31">
         <f t="shared" si="22"/>
-        <v>0.86260353138466028</v>
+        <v>0.80610385530988149</v>
       </c>
       <c r="AI31">
         <f t="shared" si="23"/>
-        <v>0.34719263057891636</v>
+        <v>0.32438581137006739</v>
       </c>
       <c r="AJ31">
         <f t="shared" si="24"/>
-        <v>93.75</v>
+        <v>96.774193548387103</v>
       </c>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.2">
@@ -4717,7 +4717,7 @@
         <v>52</v>
       </c>
       <c r="E32">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="F32">
         <v>1211</v>
@@ -4737,7 +4737,7 @@
         <v>3</v>
       </c>
       <c r="K32">
-        <v>4.6056220032110122E-2</v>
+        <v>3.6032626518660772E-2</v>
       </c>
       <c r="L32">
         <v>2</v>
@@ -4747,27 +4747,27 @@
       </c>
       <c r="N32">
         <f t="shared" si="2"/>
-        <v>0.56000000000000005</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>1.9999999999999907E-2</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <f t="shared" si="4"/>
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Q32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="R32">
         <f t="shared" si="6"/>
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="S32">
         <f t="shared" si="7"/>
-        <v>2.0000000000000018E-2</v>
+        <v>0</v>
       </c>
       <c r="T32">
         <f t="shared" si="8"/>
@@ -4779,11 +4779,11 @@
       </c>
       <c r="V32">
         <f t="shared" si="10"/>
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="W32">
         <f t="shared" si="11"/>
-        <v>1.999999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="X32">
         <f t="shared" si="12"/>
@@ -4795,11 +4795,11 @@
       </c>
       <c r="Z32">
         <f t="shared" si="14"/>
-        <v>0.30000000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="AA32">
         <f t="shared" si="15"/>
-        <v>1.9999999999999962E-2</v>
+        <v>0</v>
       </c>
       <c r="AB32">
         <f t="shared" si="16"/>
@@ -4811,31 +4811,31 @@
       </c>
       <c r="AD32">
         <f t="shared" si="18"/>
-        <v>0.59886445837549218</v>
+        <v>0.5310648470857543</v>
       </c>
       <c r="AE32">
         <f t="shared" si="19"/>
-        <v>0.18143870788749283</v>
+        <v>0.24923831917723205</v>
       </c>
       <c r="AF32">
         <f t="shared" si="20"/>
-        <v>1.3791676246384772</v>
+        <v>1.3113680133487406</v>
       </c>
       <c r="AG32">
         <f t="shared" si="21"/>
-        <v>0.15397496644485176</v>
+        <v>0.22177457773459097</v>
       </c>
       <c r="AH32">
         <f t="shared" si="22"/>
-        <v>1.2097961619635766</v>
+        <v>1.1304896666799489</v>
       </c>
       <c r="AI32">
         <f t="shared" si="23"/>
-        <v>0.13506576003934367</v>
+        <v>0.21437225532297366</v>
       </c>
       <c r="AJ32">
         <f t="shared" si="24"/>
-        <v>107.14285714285714</v>
+        <v>103.44827586206897</v>
       </c>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.2">
@@ -4872,7 +4872,7 @@
         <v>3</v>
       </c>
       <c r="K33">
-        <v>7.9560481774487379E-2</v>
+        <v>7.9560481774487657E-2</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -4946,7 +4946,7 @@
       </c>
       <c r="AD33">
         <f t="shared" si="18"/>
-        <v>0.78030316626298502</v>
+        <v>0.78030316626298635</v>
       </c>
       <c r="AE33">
         <f t="shared" si="19"/>
@@ -4954,7 +4954,7 @@
       </c>
       <c r="AF33">
         <f t="shared" si="20"/>
-        <v>1.533142591083329</v>
+        <v>1.5331425910833316</v>
       </c>
       <c r="AG33">
         <f t="shared" si="21"/>
@@ -4962,11 +4962,11 @@
       </c>
       <c r="AH33">
         <f t="shared" si="22"/>
-        <v>1.3448619220029203</v>
+        <v>1.3448619220029225</v>
       </c>
       <c r="AI33">
         <f t="shared" si="23"/>
-        <v>0.17321739098663613</v>
+        <v>0.17321739098663635</v>
       </c>
       <c r="AJ33">
         <f t="shared" si="24"/>
@@ -5007,7 +5007,7 @@
         <v>3</v>
       </c>
       <c r="K34">
-        <v>7.3837720200395682E-2</v>
+        <v>7.3837720200395959E-2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -5081,27 +5081,27 @@
       </c>
       <c r="AD34">
         <f t="shared" si="18"/>
-        <v>0.75283942482034394</v>
+        <v>0.75283942482034527</v>
       </c>
       <c r="AE34">
         <f t="shared" si="19"/>
-        <v>0.16420839464782444</v>
+        <v>0.16420839464782433</v>
       </c>
       <c r="AF34">
         <f t="shared" si="20"/>
-        <v>1.6698872442885122</v>
+        <v>1.6698872442885149</v>
       </c>
       <c r="AG34">
         <f t="shared" si="21"/>
-        <v>5.4650778474732764E-2</v>
+        <v>5.465077847473232E-2</v>
       </c>
       <c r="AH34">
         <f t="shared" si="22"/>
-        <v>1.5180793129895565</v>
+        <v>1.5180793129895589</v>
       </c>
       <c r="AI34">
         <f t="shared" si="23"/>
-        <v>7.8715152531966481E-2</v>
+        <v>7.8715152531966259E-2</v>
       </c>
       <c r="AJ34">
         <f t="shared" si="24"/>
@@ -5142,7 +5142,7 @@
         <v>3</v>
       </c>
       <c r="K35">
-        <v>0.1117708210768936</v>
+        <v>0.1117708210768939</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -5216,27 +5216,27 @@
       </c>
       <c r="AD35">
         <f t="shared" si="18"/>
-        <v>0.91704781946816838</v>
+        <v>0.9170478194681696</v>
       </c>
       <c r="AE35">
         <f t="shared" si="19"/>
-        <v>-0.1095576161730919</v>
+        <v>-0.10955761617309201</v>
       </c>
       <c r="AF35">
         <f t="shared" si="20"/>
-        <v>1.724538022763245</v>
+        <v>1.7245380227632472</v>
       </c>
       <c r="AG35">
         <f t="shared" si="21"/>
-        <v>-3.4290833719603508E-2</v>
+        <v>-3.4290833719603731E-2</v>
       </c>
       <c r="AH35">
         <f t="shared" si="22"/>
-        <v>1.5967944655215229</v>
+        <v>1.5967944655215252</v>
       </c>
       <c r="AI35">
         <f t="shared" si="23"/>
-        <v>-2.2216456690311581E-3</v>
+        <v>-2.2216456690313802E-3</v>
       </c>
       <c r="AJ35">
         <f t="shared" si="24"/>
@@ -5277,7 +5277,7 @@
         <v>3</v>
       </c>
       <c r="K36">
-        <v>8.5464847041448841E-2</v>
+        <v>8.5464847041449077E-2</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -5351,23 +5351,23 @@
       </c>
       <c r="AD36">
         <f t="shared" si="18"/>
-        <v>0.80749020329507648</v>
+        <v>0.80749020329507759</v>
       </c>
       <c r="AE36">
         <f t="shared" si="19"/>
-        <v>7.5266782453488501E-2</v>
+        <v>7.5266782453488279E-2</v>
       </c>
       <c r="AF36">
         <f t="shared" si="20"/>
-        <v>1.6902471890436415</v>
+        <v>1.6902471890436435</v>
       </c>
       <c r="AG36">
         <f t="shared" si="21"/>
-        <v>-1.076242188995602E-2</v>
+        <v>-1.0762421889955798E-2</v>
       </c>
       <c r="AH36">
         <f t="shared" si="22"/>
-        <v>1.5945728198524918</v>
+        <v>1.5945728198524938</v>
       </c>
       <c r="AI36">
         <f t="shared" si="23"/>
@@ -5412,7 +5412,7 @@
         <v>3</v>
       </c>
       <c r="K37">
-        <v>0.1030926698901285</v>
+        <v>0.1030926698901287</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -5486,27 +5486,27 @@
       </c>
       <c r="AD37">
         <f t="shared" si="18"/>
-        <v>0.88275698574856498</v>
+        <v>0.88275698574856587</v>
       </c>
       <c r="AE37">
         <f t="shared" si="19"/>
-        <v>-8.602920434344441E-2</v>
+        <v>-8.6029204343443966E-2</v>
       </c>
       <c r="AF37">
         <f t="shared" si="20"/>
-        <v>1.6794847671536854</v>
+        <v>1.6794847671536877</v>
       </c>
       <c r="AG37">
         <f t="shared" si="21"/>
-        <v>-0.13201445586574279</v>
+        <v>-0.13201445586574212</v>
       </c>
       <c r="AH37">
         <f t="shared" si="22"/>
-        <v>1.5550784881052642</v>
+        <v>1.5550784881052662</v>
       </c>
       <c r="AI37">
         <f t="shared" si="23"/>
-        <v>-0.17340856731245835</v>
+        <v>-0.17340856731245768</v>
       </c>
       <c r="AJ37">
         <f t="shared" si="24"/>
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="K38">
-        <v>8.3098751460221304E-2</v>
+        <v>8.3098751460221595E-2</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -5621,27 +5621,27 @@
       </c>
       <c r="AD38">
         <f t="shared" si="18"/>
-        <v>0.79672778140512057</v>
+        <v>0.7967277814051219</v>
       </c>
       <c r="AE38">
         <f t="shared" si="19"/>
-        <v>-4.5985251522298487E-2</v>
+        <v>-4.5985251522298265E-2</v>
       </c>
       <c r="AF38">
         <f t="shared" si="20"/>
-        <v>1.5474703112879427</v>
+        <v>1.5474703112879455</v>
       </c>
       <c r="AG38" s="3">
         <f t="shared" si="21"/>
-        <v>-0.79672778140512057</v>
+        <v>-0.7967277814051219</v>
       </c>
       <c r="AH38">
         <f t="shared" si="22"/>
-        <v>1.3816699207928058</v>
+        <v>1.3816699207928085</v>
       </c>
       <c r="AI38" s="3">
         <f t="shared" si="23"/>
-        <v>-1.1891718362074668</v>
+        <v>-1.189171836207469</v>
       </c>
       <c r="AJ38">
         <f t="shared" si="24"/>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="K39">
-        <v>7.3410631991741207E-2</v>
+        <v>7.3410631991741512E-2</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -5756,27 +5756,27 @@
       </c>
       <c r="AD39">
         <f t="shared" si="18"/>
-        <v>0.75074252988282208</v>
+        <v>0.75074252988282364</v>
       </c>
       <c r="AE39" s="3">
         <f t="shared" si="19"/>
-        <v>-0.75074252988282208</v>
+        <v>-0.75074252988282364</v>
       </c>
       <c r="AF39" s="3">
         <f t="shared" si="20"/>
-        <v>0.75074252988282208</v>
+        <v>0.75074252988282364</v>
       </c>
       <c r="AG39" s="3">
         <f t="shared" si="21"/>
-        <v>2.4257685606202117E-2</v>
+        <v>2.4257685606202006E-2</v>
       </c>
       <c r="AH39" s="3">
         <f t="shared" si="22"/>
-        <v>0.19249808458533901</v>
+        <v>0.1924980845853394</v>
       </c>
       <c r="AI39" s="3">
         <f t="shared" si="23"/>
-        <v>4.2024777215199371E-3</v>
+        <v>4.2024777215199094E-3</v>
       </c>
       <c r="AJ39">
         <f t="shared" si="24"/>
@@ -5892,23 +5892,23 @@
       </c>
       <c r="AE40" s="3">
         <f t="shared" si="19"/>
-        <v>0.7750002154890242</v>
+        <v>0.77500021548902565</v>
       </c>
       <c r="AF40" s="3">
         <f t="shared" si="20"/>
-        <v>0.7750002154890242</v>
+        <v>0.77500021548902565</v>
       </c>
       <c r="AG40" s="3">
         <f t="shared" si="21"/>
-        <v>0.82791770750354254</v>
+        <v>0.82791770750354354</v>
       </c>
       <c r="AH40" s="3">
         <f t="shared" si="22"/>
-        <v>0.19670056230685895</v>
+        <v>0.19670056230685931</v>
       </c>
       <c r="AI40" s="3">
         <f t="shared" si="23"/>
-        <v>1.2093677911953926</v>
+        <v>1.2093677911953944</v>
       </c>
       <c r="AJ40" s="3">
         <f t="shared" si="24"/>
@@ -5949,7 +5949,7 @@
         <v>3</v>
       </c>
       <c r="K41">
-        <v>7.843669654065609E-2</v>
+        <v>7.8436696540656395E-2</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -6023,27 +6023,27 @@
       </c>
       <c r="AD41">
         <f t="shared" si="18"/>
-        <v>0.7750002154890242</v>
+        <v>0.77500021548902565</v>
       </c>
       <c r="AE41">
         <f t="shared" si="19"/>
-        <v>5.2917492014518341E-2</v>
+        <v>5.2917492014517897E-2</v>
       </c>
       <c r="AF41">
         <f t="shared" si="20"/>
-        <v>1.6029179229925667</v>
+        <v>1.6029179229925692</v>
       </c>
       <c r="AG41">
         <f t="shared" si="21"/>
-        <v>5.9284037611887053E-2</v>
+        <v>5.9284037611886609E-2</v>
       </c>
       <c r="AH41">
         <f t="shared" si="22"/>
-        <v>1.4060683535022516</v>
+        <v>1.4060683535022538</v>
       </c>
       <c r="AI41">
         <f t="shared" si="23"/>
-        <v>0.13300753594631676</v>
+        <v>0.13300753594631631</v>
       </c>
       <c r="AJ41">
         <f t="shared" si="24"/>
@@ -6084,7 +6084,7 @@
         <v>3</v>
       </c>
       <c r="K42">
-        <v>9.0060644460078845E-2</v>
+        <v>9.0060644460079067E-2</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -6158,27 +6158,27 @@
       </c>
       <c r="AD42">
         <f t="shared" si="18"/>
-        <v>0.82791770750354254</v>
+        <v>0.82791770750354354</v>
       </c>
       <c r="AE42">
         <f t="shared" si="19"/>
-        <v>6.3665455973688223E-3</v>
+        <v>6.3665455973687113E-3</v>
       </c>
       <c r="AF42">
         <f t="shared" si="20"/>
-        <v>1.6622019606044538</v>
+        <v>1.6622019606044558</v>
       </c>
       <c r="AG42">
         <f t="shared" si="21"/>
-        <v>3.3886277686118627E-2</v>
+        <v>3.3886277686118405E-2</v>
       </c>
       <c r="AH42">
         <f t="shared" si="22"/>
-        <v>1.5390758894485683</v>
+        <v>1.5390758894485701</v>
       </c>
       <c r="AI42">
         <f t="shared" si="23"/>
-        <v>6.100735422178305E-2</v>
+        <v>6.1007354221782828E-2</v>
       </c>
       <c r="AJ42">
         <f t="shared" si="24"/>
@@ -6219,7 +6219,7 @@
         <v>3</v>
       </c>
       <c r="K43">
-        <v>9.1521330643183074E-2</v>
+        <v>9.1521330643183282E-2</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="AD43">
         <f t="shared" si="18"/>
-        <v>0.83428425310091137</v>
+        <v>0.83428425310091225</v>
       </c>
       <c r="AE43">
         <f t="shared" si="19"/>
@@ -6301,19 +6301,19 @@
       </c>
       <c r="AF43">
         <f t="shared" si="20"/>
-        <v>1.6960882382905724</v>
+        <v>1.6960882382905742</v>
       </c>
       <c r="AG43">
         <f t="shared" si="21"/>
-        <v>4.9545860923428497E-2</v>
+        <v>4.954586092342872E-2</v>
       </c>
       <c r="AH43">
         <f t="shared" si="22"/>
-        <v>1.6000832436703514</v>
+        <v>1.6000832436703529</v>
       </c>
       <c r="AI43">
         <f t="shared" si="23"/>
-        <v>7.8411082496957052E-2</v>
+        <v>7.8411082496957496E-2</v>
       </c>
       <c r="AJ43">
         <f t="shared" si="24"/>
@@ -6354,7 +6354,7 @@
         <v>3</v>
       </c>
       <c r="K44">
-        <v>9.7992279208485092E-2</v>
+        <v>9.79922792084853E-2</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -6428,23 +6428,23 @@
       </c>
       <c r="AD44">
         <f t="shared" si="18"/>
-        <v>0.86180398518966106</v>
+        <v>0.86180398518966195</v>
       </c>
       <c r="AE44">
         <f t="shared" si="19"/>
-        <v>2.2026128834678693E-2</v>
+        <v>2.2026128834679026E-2</v>
       </c>
       <c r="AF44">
         <f t="shared" si="20"/>
-        <v>1.7456340992140009</v>
+        <v>1.7456340992140029</v>
       </c>
       <c r="AG44">
         <f t="shared" si="21"/>
-        <v>-4.32389348274973E-2</v>
+        <v>-4.3238934827497078E-2</v>
       </c>
       <c r="AH44">
         <f t="shared" si="22"/>
-        <v>1.6784943261673084</v>
+        <v>1.6784943261673104</v>
       </c>
       <c r="AI44">
         <f t="shared" si="23"/>
@@ -6489,7 +6489,7 @@
         <v>3</v>
       </c>
       <c r="K45">
-        <v>0.1033579839750368</v>
+        <v>0.10335798397503709</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -6563,7 +6563,7 @@
       </c>
       <c r="AD45">
         <f t="shared" si="18"/>
-        <v>0.88383011402433975</v>
+        <v>0.88383011402434097</v>
       </c>
       <c r="AE45">
         <f t="shared" si="19"/>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="AF45">
         <f t="shared" si="20"/>
-        <v>1.7023951643865036</v>
+        <v>1.7023951643865058</v>
       </c>
       <c r="AG45">
         <f t="shared" si="21"/>
@@ -6579,7 +6579,7 @@
       </c>
       <c r="AH45">
         <f t="shared" si="22"/>
-        <v>1.6060331739495317</v>
+        <v>1.6060331739495337</v>
       </c>
       <c r="AI45">
         <f t="shared" si="23"/>
@@ -6624,7 +6624,7 @@
         <v>3</v>
       </c>
       <c r="K46">
-        <v>8.7939337900975995E-2</v>
+        <v>8.7939337900976272E-2</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -6698,15 +6698,15 @@
       </c>
       <c r="AD46">
         <f t="shared" si="18"/>
-        <v>0.81856505036216376</v>
+        <v>0.81856505036216498</v>
       </c>
       <c r="AE46">
         <f t="shared" si="19"/>
-        <v>3.5203243698778031E-2</v>
+        <v>3.5203243698777809E-2</v>
       </c>
       <c r="AF46">
         <f t="shared" si="20"/>
-        <v>1.6723333444231057</v>
+        <v>1.6723333444231079</v>
       </c>
       <c r="AG46">
         <f t="shared" si="21"/>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="AH46">
         <f t="shared" si="22"/>
-        <v>1.5203030403846414</v>
+        <v>1.5203030403846434</v>
       </c>
       <c r="AI46">
         <f t="shared" si="23"/>
@@ -6759,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="K47">
-        <v>9.6076233228252886E-2</v>
+        <v>9.6076233228253108E-2</v>
       </c>
       <c r="L47">
         <v>1</v>
@@ -6833,27 +6833,27 @@
       </c>
       <c r="AD47">
         <f t="shared" si="18"/>
-        <v>0.85376829406094179</v>
+        <v>0.85376829406094279</v>
       </c>
       <c r="AE47">
         <f t="shared" si="19"/>
-        <v>-1.4116239866854952E-2</v>
+        <v>-1.411623986685473E-2</v>
       </c>
       <c r="AF47">
         <f t="shared" si="20"/>
-        <v>1.6934203482550285</v>
+        <v>1.6934203482550307</v>
       </c>
       <c r="AG47">
         <f t="shared" si="21"/>
-        <v>-0.13297099576501825</v>
+        <v>-0.13297099576502003</v>
       </c>
       <c r="AH47">
         <f t="shared" si="22"/>
-        <v>1.4598451278060591</v>
+        <v>1.4598451278060611</v>
       </c>
       <c r="AI47">
         <f t="shared" si="23"/>
-        <v>-0.13743042230605029</v>
+        <v>-0.13743042230605207</v>
       </c>
       <c r="AJ47">
         <f t="shared" si="24"/>
@@ -6894,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="K48">
-        <v>9.2763420963984794E-2</v>
+        <v>9.2763420963985072E-2</v>
       </c>
       <c r="L48">
         <v>1</v>
@@ -6968,27 +6968,27 @@
       </c>
       <c r="AD48">
         <f t="shared" si="18"/>
-        <v>0.83965205419408684</v>
+        <v>0.83965205419408806</v>
       </c>
       <c r="AE48">
         <f t="shared" si="19"/>
-        <v>-0.1188547558981633</v>
+        <v>-0.11885475589816541</v>
       </c>
       <c r="AF48">
         <f t="shared" si="20"/>
-        <v>1.5604493524900103</v>
+        <v>1.5604493524900107</v>
       </c>
       <c r="AG48">
         <f t="shared" si="21"/>
-        <v>-0.2744192391574134</v>
+        <v>-0.27441923915741184</v>
       </c>
       <c r="AH48">
         <f t="shared" si="22"/>
-        <v>1.3224147055000088</v>
+        <v>1.3224147055000091</v>
       </c>
       <c r="AI48">
         <f t="shared" si="23"/>
-        <v>-0.33316077216724205</v>
+        <v>-0.33316077216724072</v>
       </c>
       <c r="AJ48">
         <f t="shared" si="24"/>
@@ -7029,7 +7029,7 @@
         <v>3</v>
       </c>
       <c r="K49">
-        <v>6.7462018382107303E-2</v>
+        <v>6.7462018382107136E-2</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -7103,27 +7103,27 @@
       </c>
       <c r="AD49">
         <f t="shared" si="18"/>
-        <v>0.72079729829592354</v>
+        <v>0.72079729829592265</v>
       </c>
       <c r="AE49">
         <f t="shared" si="19"/>
-        <v>-0.15556448325925021</v>
+        <v>-0.15556448325924643</v>
       </c>
       <c r="AF49">
         <f t="shared" si="20"/>
-        <v>1.2860301133325969</v>
+        <v>1.2860301133325989</v>
       </c>
       <c r="AG49">
         <f t="shared" si="21"/>
-        <v>-0.16035467518577695</v>
+        <v>-0.16035467518577495</v>
       </c>
       <c r="AH49">
         <f t="shared" si="22"/>
-        <v>0.98925393333276679</v>
+        <v>0.98925393333276834</v>
       </c>
       <c r="AI49">
         <f t="shared" si="23"/>
-        <v>-9.586072845433824E-2</v>
+        <v>-9.5860728454336686E-2</v>
       </c>
       <c r="AJ49">
         <f t="shared" si="24"/>
@@ -7164,7 +7164,7 @@
         <v>3</v>
       </c>
       <c r="K50">
-        <v>4.0920577824184928E-2</v>
+        <v>4.0920577824185352E-2</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -7238,27 +7238,27 @@
       </c>
       <c r="AD50">
         <f t="shared" si="18"/>
-        <v>0.56523281503667333</v>
+        <v>0.56523281503667622</v>
       </c>
       <c r="AE50">
         <f t="shared" si="19"/>
-        <v>-4.7901919265267434E-3</v>
+        <v>-4.7901919265284088E-3</v>
       </c>
       <c r="AF50">
         <f t="shared" si="20"/>
-        <v>1.1256754381468199</v>
+        <v>1.1256754381468239</v>
       </c>
       <c r="AG50">
         <f t="shared" si="21"/>
-        <v>0.21733155611921084</v>
+        <v>0.21733155611920929</v>
       </c>
       <c r="AH50">
         <f t="shared" si="22"/>
-        <v>0.89339320487842855</v>
+        <v>0.89339320487843166</v>
       </c>
       <c r="AI50">
         <f t="shared" si="23"/>
-        <v>0.28468310588124757</v>
+        <v>0.28468310588124668</v>
       </c>
       <c r="AJ50">
         <f t="shared" si="24"/>
@@ -7299,7 +7299,7 @@
         <v>3</v>
       </c>
       <c r="K51">
-        <v>4.0215406654993978E-2</v>
+        <v>4.0215406654994151E-2</v>
       </c>
       <c r="L51">
         <v>1</v>
@@ -7373,7 +7373,7 @@
       </c>
       <c r="AD51">
         <f t="shared" si="18"/>
-        <v>0.56044262311014659</v>
+        <v>0.56044262311014781</v>
       </c>
       <c r="AE51">
         <f t="shared" si="19"/>
@@ -7381,15 +7381,15 @@
       </c>
       <c r="AF51">
         <f t="shared" si="20"/>
-        <v>1.3430069942660308</v>
+        <v>1.3430069942660332</v>
       </c>
       <c r="AG51">
         <f t="shared" si="21"/>
-        <v>0.19772578910470351</v>
+        <v>0.19772578910470373</v>
       </c>
       <c r="AH51">
         <f t="shared" si="22"/>
-        <v>1.1780763107596761</v>
+        <v>1.1780763107596783</v>
       </c>
       <c r="AI51">
         <f t="shared" si="23"/>
@@ -7434,7 +7434,7 @@
         <v>3</v>
       </c>
       <c r="K52">
-        <v>8.004242173191535E-2</v>
+        <v>8.0042421731915614E-2</v>
       </c>
       <c r="L52">
         <v>1</v>
@@ -7508,7 +7508,7 @@
       </c>
       <c r="AD52">
         <f t="shared" si="18"/>
-        <v>0.78256437115588418</v>
+        <v>0.7825643711558854</v>
       </c>
       <c r="AE52">
         <f t="shared" si="19"/>
@@ -7516,19 +7516,19 @@
       </c>
       <c r="AF52">
         <f t="shared" si="20"/>
-        <v>1.5407327833707343</v>
+        <v>1.5407327833707369</v>
       </c>
       <c r="AG52">
         <f t="shared" si="21"/>
-        <v>3.1157230133953329E-2</v>
+        <v>3.1157230133952662E-2</v>
       </c>
       <c r="AH52">
         <f t="shared" si="22"/>
-        <v>1.3057057486192665</v>
+        <v>1.3057057486192687</v>
       </c>
       <c r="AI52">
         <f t="shared" si="23"/>
-        <v>9.7767477724204577E-2</v>
+        <v>9.7767477724204133E-2</v>
       </c>
       <c r="AJ52">
         <f t="shared" si="24"/>
@@ -7569,7 +7569,7 @@
         <v>3</v>
       </c>
       <c r="K53">
-        <v>7.4929368520133877E-2</v>
+        <v>7.492936852013414E-2</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -7643,27 +7643,27 @@
       </c>
       <c r="AD53">
         <f t="shared" si="18"/>
-        <v>0.75816841221485021</v>
+        <v>0.75816841221485143</v>
       </c>
       <c r="AE53">
         <f t="shared" si="19"/>
-        <v>5.5553189074987186E-2</v>
+        <v>5.5553189074986853E-2</v>
       </c>
       <c r="AF53">
         <f t="shared" si="20"/>
-        <v>1.5718900135046876</v>
+        <v>1.5718900135046896</v>
       </c>
       <c r="AG53">
         <f t="shared" si="21"/>
-        <v>0.1327622907455388</v>
+        <v>0.13276229074553925</v>
       </c>
       <c r="AH53">
         <f t="shared" si="22"/>
-        <v>1.403473226343471</v>
+        <v>1.4034732263434728</v>
       </c>
       <c r="AI53">
         <f t="shared" si="23"/>
-        <v>0.14621068661128001</v>
+        <v>0.14621068661128045</v>
       </c>
       <c r="AJ53">
         <f t="shared" si="24"/>
@@ -7704,7 +7704,7 @@
         <v>3</v>
       </c>
       <c r="K54">
-        <v>8.6852173385821504E-2</v>
+        <v>8.6852173385821699E-2</v>
       </c>
       <c r="L54">
         <v>0</v>
@@ -7778,27 +7778,27 @@
       </c>
       <c r="AD54">
         <f t="shared" si="18"/>
-        <v>0.81372160128983739</v>
+        <v>0.81372160128983828</v>
       </c>
       <c r="AE54">
         <f t="shared" si="19"/>
-        <v>7.7209101670551616E-2</v>
+        <v>7.7209101670552394E-2</v>
       </c>
       <c r="AF54">
         <f t="shared" si="20"/>
-        <v>1.7046523042502264</v>
+        <v>1.7046523042502288</v>
       </c>
       <c r="AG54">
         <f t="shared" si="21"/>
-        <v>-4.760296315694057E-2</v>
+        <v>-4.7602963156940792E-2</v>
       </c>
       <c r="AH54">
         <f t="shared" si="22"/>
-        <v>1.5496839129547511</v>
+        <v>1.5496839129547533</v>
       </c>
       <c r="AI54">
         <f t="shared" si="23"/>
-        <v>-1.5378967498004936E-2</v>
+        <v>-1.5378967498005158E-2</v>
       </c>
       <c r="AJ54">
         <f t="shared" si="24"/>
@@ -7839,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="K55">
-        <v>0.1051236227574374</v>
+        <v>0.10512362275743781</v>
       </c>
       <c r="L55">
         <v>0</v>
@@ -7913,27 +7913,27 @@
       </c>
       <c r="AD55">
         <f t="shared" si="18"/>
-        <v>0.89093070296038901</v>
+        <v>0.89093070296039067</v>
       </c>
       <c r="AE55">
         <f t="shared" si="19"/>
-        <v>-0.1248120648274923</v>
+        <v>-0.1248120648274933</v>
       </c>
       <c r="AF55">
         <f t="shared" si="20"/>
-        <v>1.6570493410932858</v>
+        <v>1.6570493410932881</v>
       </c>
       <c r="AG55">
         <f t="shared" si="21"/>
-        <v>-4.9211445290342493E-2</v>
+        <v>-4.9211445290343159E-2</v>
       </c>
       <c r="AH55">
         <f t="shared" si="22"/>
-        <v>1.5343049454567461</v>
+        <v>1.5343049454567481</v>
       </c>
       <c r="AI55">
         <f t="shared" si="23"/>
-        <v>-4.55661530466136E-2</v>
+        <v>-4.5566153046614044E-2</v>
       </c>
       <c r="AJ55">
         <f t="shared" si="24"/>
@@ -7974,7 +7974,7 @@
         <v>3</v>
       </c>
       <c r="K56">
-        <v>7.6574735030424973E-2</v>
+        <v>7.6574735030425126E-2</v>
       </c>
       <c r="L56">
         <v>0</v>
@@ -8048,27 +8048,27 @@
       </c>
       <c r="AD56">
         <f t="shared" si="18"/>
-        <v>0.76611863813289671</v>
+        <v>0.76611863813289738</v>
       </c>
       <c r="AE56">
         <f t="shared" si="19"/>
-        <v>7.5600619537149805E-2</v>
+        <v>7.5600619537150138E-2</v>
       </c>
       <c r="AF56">
         <f t="shared" si="20"/>
-        <v>1.6078378958029433</v>
+        <v>1.6078378958029449</v>
       </c>
       <c r="AG56">
         <f t="shared" si="21"/>
-        <v>-5.1418240110044255E-2</v>
+        <v>-5.1418240110043589E-2</v>
       </c>
       <c r="AH56">
         <f t="shared" si="22"/>
-        <v>1.4887387924101325</v>
+        <v>1.4887387924101341</v>
       </c>
       <c r="AI56">
         <f t="shared" si="23"/>
-        <v>-9.9078385541472747E-2</v>
+        <v>-9.9078385541472302E-2</v>
       </c>
       <c r="AJ56">
         <f t="shared" si="24"/>
@@ -8109,7 +8109,7 @@
         <v>2</v>
       </c>
       <c r="K57">
-        <v>9.324434740359043E-2</v>
+        <v>9.3244347403590666E-2</v>
       </c>
       <c r="L57">
         <v>1</v>
@@ -8177,20 +8177,20 @@
       </c>
       <c r="AD57">
         <f t="shared" si="18"/>
-        <v>0.84171925767004652</v>
+        <v>0.84171925767004752</v>
       </c>
       <c r="AE57">
         <f t="shared" si="19"/>
-        <v>-0.12701885964719395</v>
+        <v>-0.12701885964719373</v>
       </c>
       <c r="AF57">
         <f t="shared" si="20"/>
-        <v>1.5564196556928991</v>
+        <v>1.5564196556929013</v>
       </c>
       <c r="AG57" s="3"/>
       <c r="AH57">
         <f t="shared" si="22"/>
-        <v>1.3896604068686598</v>
+        <v>1.3896604068686618</v>
       </c>
       <c r="AI57" s="3"/>
       <c r="AJ57">
@@ -8229,7 +8229,7 @@
         <v>1</v>
       </c>
       <c r="K58">
-        <v>6.6285063410712664E-2</v>
+        <v>6.6285063410712886E-2</v>
       </c>
       <c r="L58">
         <v>1</v>
@@ -8279,7 +8279,7 @@
       <c r="AC58" s="3"/>
       <c r="AD58">
         <f t="shared" si="18"/>
-        <v>0.71470039802285257</v>
+        <v>0.71470039802285379</v>
       </c>
       <c r="AE58" s="3"/>
       <c r="AF58" s="3"/>
